--- a/Estructura.xlsx
+++ b/Estructura.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b140e3b3dd57140/Documents/GitHub/koatrarecursos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{9E9BD8F7-C37E-46F4-AF7D-E9C6F5181FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D22CD79E-9850-4B41-B346-7905B54CB9F9}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{9E9BD8F7-C37E-46F4-AF7D-E9C6F5181FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{667943C7-9A83-4D7A-B837-6D583F9DB1E3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{F157436D-4D8C-4671-8799-A04D9D11A1F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1" xr2:uid="{F157436D-4D8C-4671-8799-A04D9D11A1F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Un Servidor" sheetId="1" r:id="rId1"/>
@@ -2844,6 +2844,125 @@
         <a:xfrm flipV="1">
           <a:off x="6986650" y="5168835"/>
           <a:ext cx="47401" cy="516586"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>110837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476794</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>111926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectángulo 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF183DD-E884-4663-9FDA-474B3628A756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="5153892"/>
+          <a:ext cx="1903812" cy="721525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-CL" sz="1100" baseline="0"/>
+            <a:t>velocity</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-CL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>110836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>111382</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector recto de flecha 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2829064-97DE-A8D2-34E6-97CD55BC72A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7966364" y="5153891"/>
+          <a:ext cx="872836" cy="360764"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3171,8 +3290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB9E2FD-6EF6-4443-B599-A2223C4F8265}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3189,8 +3308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08531AD6-561A-4389-A049-CB6107EEBB36}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
